--- a/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>161715</t>
-  </si>
-  <si>
-    <t>招商中证大宗商品股票指数（LOF）</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>94.85</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>0.0249</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1399,7 +1624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1835,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2157,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603379-三美股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011434</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1624,7 +2457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2060,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2382,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
